--- a/biology/Zoologie/Cratogeomys_merriami/Cratogeomys_merriami.xlsx
+++ b/biology/Zoologie/Cratogeomys_merriami/Cratogeomys_merriami.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cratogeomys merriami est une espèce de rongeurs de la famille des Géomyidés qui rassemble des gaufres ou rats à poche, c'est-à-dire à abajoues. C'est un petit rongeur terrestre, endémique du Mexique. 
 Il a été décrit pour la première fois en 1893 par le zoologiste anglais Michael Rogers Oldfield Thomas (1858-1929), et nommée C. merriami en hommage au zoologiste américain Clinton Hart Merriam (1855-1942) qui a décrit la plupart des espèces voisines.
@@ -512,9 +524,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Mexique. On la trouve dans la région de Mexico, à une altitude située entre 1 800 m et 4 000 m. Elle vit dans les prairies et dans les forêts tempérées de pins et chênes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Mexique. On la trouve dans la région de Mexico, à une altitude située entre 1 800 m et 4 000 m. Elle vit dans les prairies et dans les forêts tempérées de pins et chênes.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (5 nov. 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (5 nov. 2012) :
 sous-espèce Cratogeomys merriami estor
 sous-espèce Cratogeomys merriami fulvescens
 sous-espèce Cratogeomys merriami irolonis
